--- a/data/financial_statements/sofp/FRC.xlsx
+++ b/data/financial_statements/sofp/FRC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,1164 +578,1191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>4283000000</v>
+      </c>
+      <c r="C2">
         <v>5532000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6237000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7756000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12947000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12279450000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7876952000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8889492000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5095000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3691149000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3099170000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3949378000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1699557000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2181600000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2220073000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3693396000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2811159000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3013645000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3993226000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3839931000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2297021000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2681599000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2295125000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2756485000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2107722000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1387067000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1564157000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1946247000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1131210000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1795880000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1371129000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1644634000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>817250000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1372828000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1751117000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1791111000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>807985000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1954100000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>591901000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>552937000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>170367000000</v>
+      </c>
+      <c r="C3">
         <v>163539000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>157027000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>148368000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>147209000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>139990100000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>130360400000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>126352100000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>117047000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>107881700000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>102844100000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>99047410000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>92023590000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>88032640000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>83997090000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>80515250000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>78336380000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>75200500000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>72789490000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>69339480000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>64859000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>62522830000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>59919240000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>56551930000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>54216870000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>51464070000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>49331940000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>47119160000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>45002400000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>44147510000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>42263950000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>40496000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>38689730000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>38042620000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>38082040000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>36732990000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>34714290000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>34282500000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>30939500000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>28804870000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>483000000</v>
       </c>
       <c r="C4">
+        <v>483000000</v>
+      </c>
+      <c r="D4">
         <v>474000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>467000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>454000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>430675000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>418725000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>412331000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>403000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>390241000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>388256000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>392953000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>386841000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>373693000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>348609000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>339745000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>332483000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>324052000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>312278000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>299587000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>296197000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>277809000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>260308000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>236774000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>207592000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>190213000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>181647000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>174857000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>172008000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>161634000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>163758000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>162051000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>165703000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>162991000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>162742000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>164507000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>166544000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>162839000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>156446000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>153365000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>36537000000</v>
+      </c>
+      <c r="C5">
         <v>36311000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>35815000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>34215000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>29571000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>27993420000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>26722580000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>25138700000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>21723000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>21704460000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>21680450000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>21360810000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>20984540000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>19887680000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>18646230000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>18532240000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>18668930000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>18750470000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>18872200000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>18969790000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>21014230000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>19978260000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>19283940000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>18388690000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>17552000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>15142560000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>13890770000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>13653400000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>12626910000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>10106100000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>9677837000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>9360277000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>8481438000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>7458433000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>7007895000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>6492176000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>6278901000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>5573744000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>5296047000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>5192649000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>218000000</v>
+      </c>
+      <c r="C6">
         <v>219000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>220000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>221000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>222000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>223183000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>224497000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>225925000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>228000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>229185000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>230975000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>232985000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>235269000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>310340000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>317044000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>323319000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>273974000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>335312000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>343646000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>348842000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>356360000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>358158000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>366099000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>371997000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>377986000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>350286000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>353173000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>356581000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>362554000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>255311000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>259139000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>261644000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>265573000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>267328000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>263577000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>263623000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>269075000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>275382000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>280824000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>281727000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>5034000000</v>
+      </c>
+      <c r="C7">
         <v>4557000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4372000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3850000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3631000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3933088000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3920541000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3668922000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3101000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3020178000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3160140000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2880776000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2633397000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2424383000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2390649000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2136675000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1593441000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1483892000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1533840000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1265806000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1254720000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1183044000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1148642000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>954955000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>923324000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>846425000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>972332000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>798509000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>817410000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>704666000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>753886000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>786488000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>747763000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>749551000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>713094100</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>692597000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>683956000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>656354000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>639921000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>650296000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>42272000000</v>
+      </c>
+      <c r="C8">
         <v>41570000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>40881000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>38753000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>33878000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>32580370000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>31286340000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>29445880000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>25455000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>25344060000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>25459820000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>24867520000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>24240040000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>22996100000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>21702540000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>21331980000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>20868830000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>20893720000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>21061960000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>20884030000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>22921510000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>21797270000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>21058990000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>19952420000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>19060910000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>16529480000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>15397920000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>14983340000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>13978880000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>11227710000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>10854620000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>10570460000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>9660477000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>8638304000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>8147309000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>7612903000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>7398477000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>6668319000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>6373238000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>6278037000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>212639000000</v>
+      </c>
+      <c r="C9">
         <v>205109000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>197908000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>187121000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>181087000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>172570500000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>161646700000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>155798000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>142502000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>133225800000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>128303900000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>123914900000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>116263600000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>111028700000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>105699600000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>101847200000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>99205200000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>96094220000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>93851460000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>90223510000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>87780510000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>84320090000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>80978230000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>76504350000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>73277770000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>67993550000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>64729860000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>62102510000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>58981290000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>55375220000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>53118570000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>51066460000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>48350200000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>46680920000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>46229340000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>44345900000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>42112760000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>40950820000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>37312740000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>35082900000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>6700000000</v>
+      </c>
+      <c r="C10">
         <v>5100000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6300000000</v>
-      </c>
-      <c r="J10">
-        <v>5000000</v>
       </c>
       <c r="K10">
         <v>5000000</v>
       </c>
-      <c r="M10">
+      <c r="L10">
+        <v>5000000</v>
+      </c>
+      <c r="N10">
         <v>800000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>775000000</v>
-      </c>
-      <c r="Q10">
-        <v>100000000</v>
       </c>
       <c r="R10">
         <v>100000000</v>
       </c>
       <c r="S10">
+        <v>100000000</v>
+      </c>
+      <c r="T10">
         <v>600000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>100000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>450000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>150000000</v>
-      </c>
-      <c r="X10">
-        <v>100000000</v>
       </c>
       <c r="Y10">
         <v>100000000</v>
       </c>
       <c r="Z10">
+        <v>100000000</v>
+      </c>
+      <c r="AA10">
         <v>200000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>950000000</v>
-      </c>
-      <c r="AB10">
-        <v>100000000</v>
       </c>
       <c r="AC10">
         <v>100000000</v>
@@ -1632,908 +1773,935 @@
       <c r="AE10">
         <v>100000000</v>
       </c>
-      <c r="AM10">
+      <c r="AF10">
+        <v>100000000</v>
+      </c>
+      <c r="AN10">
         <v>370000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>810000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>176437000000</v>
+      </c>
+      <c r="C11">
         <v>172382000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>165647000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>162060000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>156321000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>145326300000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>134656800000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>127907000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>114929000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>104403400000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>98533960000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>93692340000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>90133240000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>85720520000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>83431090000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>81612120000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>79063230000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>74759250000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>72771950000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>71255070000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>68918710000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>65436320000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>63293710000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>61207250000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>58602380000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>55061700000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>51161240000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>50935250000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>47893460000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>44342950000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>41887570000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>39939190000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>37130930000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>35607410000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>35034480000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>33567940000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>32082720000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>31290370000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>28228640000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>26853110000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>6700000000</v>
+      </c>
+      <c r="C12">
         <v>5100000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>6300000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>500000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>664000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1100000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2400000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3905000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5292000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>105000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1505000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2900000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>183137000000</v>
+      </c>
+      <c r="C13">
         <v>177482000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>171947000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>162060000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>156321000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>145326300000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>134656800000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>127907000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>114929000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>104408400000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>98538960000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>93692340000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>90933240000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>86495520000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>83431090000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>81612120000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>79163230000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>74859250000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>73371950000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>71255070000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>69018710000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>65886330000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>63443710000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>61307250000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>58702380000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>55261700000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>52111240000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>51035250000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>47993460000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>44442950000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>41987570000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>39939190000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>37130930000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>35607410000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>35034480000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>33567940000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>32082720000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>31290370000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>28598640000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>27663110000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>8579000000</v>
+      </c>
+      <c r="C14">
         <v>7179000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5978000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5478000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5477000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9476370000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10775730000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>12280090000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>13529000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>15278830000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>17178210000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>18022730000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>13475600000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>12175280000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>11074950000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>9674442000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>10373910000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>11273380000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>11322850000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>10172330000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>9971807000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>9971293000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>9243278000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>7100287000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>6711308000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>5412065000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>5474754000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>4226107000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>4426802000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4777680000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>5152877000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>5354376000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>5707423000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>5712685000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>5986586000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>5691743000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>5193132000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>5196999000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>4399126000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3503143000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3477000000</v>
+      </c>
+      <c r="C15">
         <v>3329000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3557000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3429000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3391000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2965994000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2939444000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2669186000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2293000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2193956000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2010793000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1840093000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2003677000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2926735000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1973963000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1514685000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>990284000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1294906000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>880687000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>959571000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>971691000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1034534000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1031163000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1008072000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>955431000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>875287000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>837653000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>856423000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>855335000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>770422000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>713066000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>697897000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>733383000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>675153000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>618219000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>592181000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>676868000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>584655000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>527851000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>398741000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>12056000000</v>
+      </c>
+      <c r="C16">
         <v>10508000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>9535000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8907000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>8868000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>12442360000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13715170000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>14949280000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>15822000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>17472790000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>19189000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>19862830000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>15479280000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>15102010000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>13048910000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>11189130000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>11364190000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>12568280000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>12203540000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>11131900000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>10943500000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>11005830000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>10274440000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>8108358000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>7666739000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>6287352000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>6312407000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>5082530000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>5282137000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>5548102000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>5865943000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>6052273000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>6440806000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>6387838000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>6604805000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>6283924000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>5870000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>5781654000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>4926977000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>3901884000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>195193000000</v>
+      </c>
+      <c r="C17">
         <v>187990000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>181482000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>170967000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>165189000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>157768700000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>148372000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>142856200000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>130751000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>121881200000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>117728000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>113555200000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>106412500000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>101597500000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>96479990000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>92801240000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>90527430000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>87427530000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>85575480000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>82386970000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>79962200000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>76892150000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>73718150000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>69415610000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>66369120000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>61549050000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>58423650000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>56117790000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>53275600000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>49991050000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>47853510000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>45991460000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>43571730000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>41995250000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>41639290000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>39851860000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>37952710000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>37072020000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>33525620000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>31565000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>6256000000</v>
+      </c>
+      <c r="C18">
         <v>6230000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5782000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5763000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5725000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5685384000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>5204166000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5191932000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4835000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>4571499000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4543051000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>4543650000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>4214915000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4198442000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>4186304000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>4203473000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>4024306000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4000146000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3772323000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3797419000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3778913000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>3536400000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>3525283000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>3547447000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3301705000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>2962355000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>2959168000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>2773255000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>2770265000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2533713000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>2523239000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2522159000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2313592000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>2306159000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2296647000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>2289799000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>2042027000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>2043498000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>2036607000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>2035558000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>3633000000</v>
@@ -2548,22 +2716,22 @@
         <v>3633000000</v>
       </c>
       <c r="F19">
+        <v>3633000000</v>
+      </c>
+      <c r="G19">
         <v>2892500000</v>
-      </c>
-      <c r="G19">
-        <v>2142500000</v>
       </c>
       <c r="H19">
         <v>2142500000</v>
       </c>
       <c r="I19">
+        <v>2142500000</v>
+      </c>
+      <c r="J19">
         <v>1545000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1645000000</v>
-      </c>
-      <c r="K19">
-        <v>1145000000</v>
       </c>
       <c r="L19">
         <v>1145000000</v>
@@ -2572,7 +2740,7 @@
         <v>1145000000</v>
       </c>
       <c r="N19">
-        <v>940000000</v>
+        <v>1145000000</v>
       </c>
       <c r="O19">
         <v>940000000</v>
@@ -2584,16 +2752,16 @@
         <v>940000000</v>
       </c>
       <c r="R19">
-        <v>1140000000</v>
+        <v>940000000</v>
       </c>
       <c r="S19">
         <v>1140000000</v>
       </c>
       <c r="T19">
+        <v>1140000000</v>
+      </c>
+      <c r="U19">
         <v>840000000</v>
-      </c>
-      <c r="U19">
-        <v>990000000</v>
       </c>
       <c r="V19">
         <v>990000000</v>
@@ -2602,10 +2770,10 @@
         <v>990000000</v>
       </c>
       <c r="X19">
+        <v>990000000</v>
+      </c>
+      <c r="Y19">
         <v>940000000</v>
-      </c>
-      <c r="Y19">
-        <v>1139525000</v>
       </c>
       <c r="Z19">
         <v>1139525000</v>
@@ -2617,7 +2785,7 @@
         <v>1139525000</v>
       </c>
       <c r="AC19">
-        <v>989525000</v>
+        <v>1139525000</v>
       </c>
       <c r="AD19">
         <v>989525000</v>
@@ -2626,7 +2794,7 @@
         <v>989525000</v>
       </c>
       <c r="AF19">
-        <v>889525000</v>
+        <v>989525000</v>
       </c>
       <c r="AG19">
         <v>889525000</v>
@@ -2644,18 +2812,21 @@
         <v>889525000</v>
       </c>
       <c r="AL19">
-        <v>689525000</v>
+        <v>889525000</v>
       </c>
       <c r="AM19">
         <v>689525000</v>
       </c>
       <c r="AN19">
+        <v>689525000</v>
+      </c>
+      <c r="AO19">
         <v>499525000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>2000000</v>
@@ -2670,727 +2841,742 @@
         <v>2000000</v>
       </c>
       <c r="F20">
+        <v>2000000</v>
+      </c>
+      <c r="G20">
         <v>1793000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1767000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1763000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1722000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1721000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1714000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1686000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1685000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1682000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1674000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1649000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1648000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1626000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1619000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1617000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1579000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1577000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1571000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1543000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1501000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1497000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1463000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1461000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1425000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1424000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1421000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>1383000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1382000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1380000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1375000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1328000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1322000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1318000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>1315000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>7886000000</v>
+      </c>
+      <c r="C21">
         <v>7591000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>7236000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>6893000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>6569000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>6241963000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5936669000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5626958000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5346000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5102229000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4858965000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4652089000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4484375000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4281249000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4091636000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3914294000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3731205000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3546298000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3379725000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>3211804000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>3051611000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2899417000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2741041000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2595978000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>2459540000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>2322296000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>2192313000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2059871000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1949652000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1846604000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1748750000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1653338000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1570871000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1488846000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1386235000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1298667000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1213896000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1127077000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1041417000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>953284000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>13813000000</v>
+      </c>
+      <c r="C22">
         <v>13486000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>12793000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>12521000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>12265000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>11909290000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>11132230000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10799230000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10206000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>9699609000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>9430928000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>9214765000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>8706107000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>8491206000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>8279644000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>8105984000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>7737777000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>7526687000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>7135973000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>6996538000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>6828301000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>6437946000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>6270083000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>6148745000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>5769127000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>5304973000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>5166688000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>4845200000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>4716158000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>4394649000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>4275541000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>4185472000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3888942000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3796150000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>3700534000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3604510000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>3270522000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>3189272000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3097598000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>3018381000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>17446000000</v>
+      </c>
+      <c r="C23">
         <v>17119000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>16426000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>16154000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>15898000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>14801790000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>13274730000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>12941730000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>11751000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>11344610000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>10575930000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>10359760000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>9851107000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>9431206000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9219643000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>9045984000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>8677777000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>8666687000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>8275973000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>7836538000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>7818301000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>7427946000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>7260083000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>7088745000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>6908652000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>6444498000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>6306213000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>5984725000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>5705683000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>5384174000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>5265066000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>5074997000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>4778467000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>4685675000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>4590059000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>4494035000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>4160047000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>3878797000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>3787123000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3517906000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>212639000000</v>
+      </c>
+      <c r="C24">
         <v>205109000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>197908000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>187121000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>181087000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>172570500000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>161646700000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>155798000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>142502000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>133225800000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>128303900000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>123914900000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>116263600000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>111028700000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>105699600000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>101847200000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>99205200000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>96094220000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>93851460000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>90223510000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>87780510000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>84320090000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>80978230000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>76504350000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>73277770000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>67993550000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>64729860000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>62102510000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>58981290000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>55375220000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>53118570000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>51066460000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>48350200000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>46680920000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>46229340000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>44345900000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>42112760000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>40950820000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>37312740000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>35082900000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>183000000</v>
+      </c>
+      <c r="C25">
         <v>182904000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>180109000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>180000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>179473000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>179261000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>176742000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>176287000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>174124000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>172188000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>172094000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>171395000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>168621000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>168450000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>168176000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>167393000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>164902000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>164761000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>162638000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>161863000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>161696000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>157930000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>157686000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>157122000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>154292000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>150109000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>149722000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>146314000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>146110000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>142477000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>142389000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>142105000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>138269000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>138155000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>137978000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>137521000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>132768000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>132179000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>131822000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>131481000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>3632000</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
         <v>3632000</v>
@@ -3402,22 +3588,22 @@
         <v>3632000</v>
       </c>
       <c r="F26">
+        <v>3632000</v>
+      </c>
+      <c r="G26">
         <v>2892000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2143000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2142000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1545000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1645000</v>
-      </c>
-      <c r="K26">
-        <v>1145000</v>
       </c>
       <c r="L26">
         <v>1145000</v>
@@ -3426,7 +3612,7 @@
         <v>1145000</v>
       </c>
       <c r="N26">
-        <v>940000</v>
+        <v>1145000</v>
       </c>
       <c r="O26">
         <v>940000</v>
@@ -3438,16 +3624,16 @@
         <v>940000</v>
       </c>
       <c r="R26">
-        <v>1140000</v>
+        <v>940000</v>
       </c>
       <c r="S26">
         <v>1140000</v>
       </c>
       <c r="T26">
+        <v>1140000</v>
+      </c>
+      <c r="U26">
         <v>840000</v>
-      </c>
-      <c r="U26">
-        <v>990000</v>
       </c>
       <c r="V26">
         <v>990000</v>
@@ -3456,34 +3642,34 @@
         <v>990000</v>
       </c>
       <c r="X26">
+        <v>990000</v>
+      </c>
+      <c r="Y26">
         <v>940000</v>
-      </c>
-      <c r="Y26">
-        <v>1140000</v>
       </c>
       <c r="Z26">
         <v>1140000</v>
       </c>
       <c r="AA26">
+        <v>1140000</v>
+      </c>
+      <c r="AB26">
         <v>989000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1140000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>989500</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>990000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>989000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>890000</v>
-      </c>
-      <c r="AG26">
-        <v>889500</v>
       </c>
       <c r="AH26">
         <v>889500</v>
@@ -3498,378 +3684,390 @@
         <v>889500</v>
       </c>
       <c r="AL26">
-        <v>690000</v>
+        <v>889500</v>
       </c>
       <c r="AM26">
         <v>690000</v>
       </c>
       <c r="AN26">
+        <v>690000</v>
+      </c>
+      <c r="AO26">
         <v>500000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>17228000000</v>
+      </c>
+      <c r="C27">
         <v>16900000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>16206000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>15933000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>15676000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>14578610000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>13050240000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>12715790000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>11523000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>11115420000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>10344960000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>10126780000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>9615841000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>9120863000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>8902597000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>8722665000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>8403800000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>8331375000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>7932331000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>7487697000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>7461945000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>7069787000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>6893987000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>6716745000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>6530670000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>6094210000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>5953042000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>5628146000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>5343129000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>5128861000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>5005927000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>4813352000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>4512896000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>4418348000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>4326481000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>4230412000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>3890972000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>3603415000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>3506301000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>3236177000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>10996000000</v>
+      </c>
+      <c r="C28">
         <v>6747000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>6041000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-1778000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-6806000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-1703080000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>5298778000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>7295598000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>13726000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>11692681000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>15584040000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>16973352000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>11776043000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>9993680000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>8854877000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5981046000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>7562751000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>8259735000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>7329624000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>6332399000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>7674786000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>7289694000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>6948153000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>4343802000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>4603586000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>4024998000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>3910597000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2279860000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>3295592000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>2981800000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>3781748000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>3709742000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>4890173000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>4339857000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>4235469000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>3900632000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>4385147000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>3242899000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>3807225000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>2950206000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>15279000000</v>
+      </c>
+      <c r="C29">
         <v>12279000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>12278000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5978000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6141000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>10576370000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>13175730000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>16185090000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>18821000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>15383830000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>18683210000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>20922730000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>13475600000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>12175280000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>11074950000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>9674442000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>10373910000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>11273380000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>11322850000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>10172330000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>9971807000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>9971293000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>9243278000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>7100287000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>6711308000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>5412065000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>5474754000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>4226107000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>4426802000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>4777680000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>5152877000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>5354376000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>5707423000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>5712685000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>5986586000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>5691743000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>5193132000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>5196999000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>4399126000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>3503143000</v>
       </c>
     </row>
